--- a/questionnaire_responses/UOA_Course_sign-up_Responses.xlsx
+++ b/questionnaire_responses/UOA_Course_sign-up_Responses.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ucaes-my.sharepoint.com/personal/paschalis_chatzopoulos_uca_es/Documents/WorOptReproSciEcoEnvSci/questionnaire_responses/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_E60C3934EA41AC92F29B1534DE2528E350C2362A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{965781BC-59A0-684E-A9A2-9EA19F2B2E2B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_E60C3934EA41AC92F29B1534DE2528E350C2362A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09BCD0DA-BD6E-DF4B-B936-89995E368534}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="860" windowWidth="34200" windowHeight="20140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="840" windowWidth="34200" windowHeight="20140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D76628-8C00-524C-B63A-E2A82A0F1253}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -647,9 +647,9 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
